--- a/log_history/Y2_B2526_Parasitology_SGD_POS_scanner1759901257836_97e07c4124eb41917cc6b1aebbf1a6cacb1c4519e6715bf7648cbc4276dda7fa.xlsx
+++ b/log_history/Y2_B2526_Parasitology_SGD_POS_scanner1759901257836_97e07c4124eb41917cc6b1aebbf1a6cacb1c4519e6715bf7648cbc4276dda7fa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Parasitology_SGD_POS" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Parasitology_SGD_POS_scanner1759901257836_97e07c4124eb41917cc6b1aebbf1a6cacb1c4519e6715bf7648cbc4276dda7fa.xlsx
+++ b/log_history/Y2_B2526_Parasitology_SGD_POS_scanner1759901257836_97e07c4124eb41917cc6b1aebbf1a6cacb1c4519e6715bf7648cbc4276dda7fa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Parasitology_SGD_POS" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
